--- a/Stock Analysis/TROW/TROW.xlsx
+++ b/Stock Analysis/TROW/TROW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Stock-Analysis/Stock Analysis/TROW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="8_{BB403F6F-9775-4327-A0F3-7D39AFF35B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D25A907B-2254-425D-9883-807438DFD487}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="8_{BB403F6F-9775-4327-A0F3-7D39AFF35B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09EB4195-057E-4AD5-AF62-EDC5DC856B46}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="-255" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="6" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="5" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="IOV" sheetId="4" r:id="rId1"/>
@@ -346,12 +346,6 @@
     <t>YOC</t>
   </si>
   <si>
-    <t>[Analysis -2017-4] [Div = $2.28][Price Pivot 2.75% - 3.00%][Growth 10% - 15%]</t>
-  </si>
-  <si>
-    <t>[Analysis -2022-4] [Div = $4.80][Price Pivot 2.75% - 3.00%][Growth 10% - 15%]</t>
-  </si>
-  <si>
     <t>Rev</t>
   </si>
   <si>
@@ -359,6 +353,12 @@
   </si>
   <si>
     <t>Yeild</t>
+  </si>
+  <si>
+    <t>[Analysis -2022-4] [Div = $4.80][Pivot 2.75% - 3.00%][Growth 10% - 15%]</t>
+  </si>
+  <si>
+    <t>[Analysis -2017-4] [Div = $2.28][Pivot 2.75% - 3.00%][Growth 10% - 15%]</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -507,6 +507,7 @@
     <xf numFmtId="44" fontId="2" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,7 +523,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -5276,7 +5276,7 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H6:H8"/>
+      <selection activeCell="H20" sqref="H20:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8078,26 +8078,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="G2" s="31" t="s">
+      <c r="D2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="32"/>
+      <c r="K2" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="33"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="19" t="s">
@@ -8868,8 +8868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0F072-8EE5-43E6-9721-479E2A316DC3}">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8891,20 +8891,20 @@
       <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
+      <c r="I2" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -8979,43 +8979,43 @@
       </c>
       <c r="K4" s="5">
         <f>(J4*$J6)+J4</f>
-        <v>5.2799999999999994</v>
+        <v>5.52</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" ref="L4:T4" si="0">(K4*$J6)+K4</f>
-        <v>5.8079999999999989</v>
+        <v>6.3479999999999999</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" si="0"/>
-        <v>6.3887999999999989</v>
+        <v>7.3002000000000002</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" si="0"/>
-        <v>7.0276799999999984</v>
+        <v>8.3952299999999997</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" si="0"/>
-        <v>7.7304479999999982</v>
+        <v>9.6545144999999994</v>
       </c>
       <c r="P4" s="5">
         <f t="shared" si="0"/>
-        <v>8.5034927999999983</v>
+        <v>11.102691674999999</v>
       </c>
       <c r="Q4" s="5">
         <f t="shared" si="0"/>
-        <v>9.3538420799999979</v>
+        <v>12.768095426249999</v>
       </c>
       <c r="R4" s="5">
         <f t="shared" si="0"/>
-        <v>10.289226287999998</v>
+        <v>14.6833097401875</v>
       </c>
       <c r="S4" s="5">
         <f t="shared" si="0"/>
-        <v>11.318148916799998</v>
+        <v>16.885806201215626</v>
       </c>
       <c r="T4" s="5">
         <f t="shared" si="0"/>
-        <v>12.449963808479998</v>
+        <v>19.41867713139797</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -9036,47 +9036,47 @@
         <v>97</v>
       </c>
       <c r="J5" s="5">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K5" s="1">
         <f>K4/$J7</f>
-        <v>191.99999999999997</v>
+        <v>200.72727272727272</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ref="L5:T5" si="1">L4/$J7</f>
-        <v>211.19999999999996</v>
+        <v>230.83636363636364</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>232.31999999999996</v>
+        <v>265.46181818181822</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>255.55199999999994</v>
+        <v>305.28109090909089</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>281.10719999999992</v>
+        <v>351.07325454545452</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
-        <v>309.21791999999994</v>
+        <v>403.73424272727272</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="1"/>
-        <v>340.13971199999992</v>
+        <v>464.2943791363636</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="1"/>
-        <v>374.15368319999993</v>
+        <v>533.93853600681814</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="1"/>
-        <v>411.56905151999996</v>
+        <v>614.02931640784095</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="1"/>
-        <v>452.72595667199994</v>
+        <v>706.13371386901713</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -9097,7 +9097,7 @@
         <v>98</v>
       </c>
       <c r="J6" s="29">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -9140,47 +9140,47 @@
       </c>
       <c r="J8" s="2">
         <f>J4/$J5</f>
-        <v>3.3566433566433566E-2</v>
+        <v>3.5555555555555556E-2</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:T8" si="2">K4/$J5</f>
-        <v>3.692307692307692E-2</v>
+        <v>4.0888888888888884E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>4.0615384615384609E-2</v>
+        <v>4.7022222222222222E-2</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>4.4676923076923072E-2</v>
+        <v>5.4075555555555557E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="2"/>
-        <v>4.914461538461537E-2</v>
+        <v>6.2186888888888889E-2</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="2"/>
-        <v>5.4059076923076911E-2</v>
+        <v>7.1514922222222221E-2</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="2"/>
-        <v>5.9464984615384603E-2</v>
+        <v>8.2242160555555555E-2</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="2"/>
-        <v>6.5411483076923058E-2</v>
+        <v>9.4578484638888891E-2</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="2"/>
-        <v>7.195263138461537E-2</v>
+        <v>0.10876525733472223</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="2"/>
-        <v>7.9147894523076912E-2</v>
+        <v>0.12508004593493055</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="2"/>
-        <v>8.7062683975384594E-2</v>
+        <v>0.14384205282517015</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -9227,20 +9227,20 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[PriceMedian]]</f>
         <v>1.7354196301564723E-2</v>
       </c>
-      <c r="I11" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
+      <c r="I11" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -9315,43 +9315,43 @@
       </c>
       <c r="K13" s="5">
         <f>(J13*$J15)+J13</f>
-        <v>2.6219999999999999</v>
+        <v>2.6447999999999996</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" ref="L13:T13" si="3">(K13*$J15)+K13</f>
-        <v>3.0152999999999999</v>
+        <v>3.0679679999999996</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="3"/>
-        <v>3.4675949999999998</v>
+        <v>3.5588428799999994</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="3"/>
-        <v>3.9877342499999999</v>
+        <v>4.1282577407999996</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="3"/>
-        <v>4.5858943874999998</v>
+        <v>4.7887789793279998</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="3"/>
-        <v>5.2737785456249995</v>
+        <v>5.55498361602048</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="3"/>
-        <v>6.064845327468749</v>
+        <v>6.443780994583757</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="3"/>
-        <v>6.9745721265890612</v>
+        <v>7.4747859537171584</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" si="3"/>
-        <v>8.0207579455774205</v>
+        <v>8.6707517063119042</v>
       </c>
       <c r="T13" s="5">
         <f t="shared" si="3"/>
-        <v>9.2238716374140335</v>
+        <v>10.058071979321809</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
@@ -9376,43 +9376,43 @@
       </c>
       <c r="K14" s="1">
         <f>K13/$J16</f>
-        <v>95.345454545454544</v>
+        <v>96.174545454545438</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ref="L14" si="4">L13/$J16</f>
-        <v>109.64727272727272</v>
+        <v>111.56247272727271</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ref="M14" si="5">M13/$J16</f>
-        <v>126.09436363636362</v>
+        <v>129.41246836363635</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ref="N14" si="6">N13/$J16</f>
-        <v>145.00851818181818</v>
+        <v>150.11846330181817</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" ref="O14" si="7">O13/$J16</f>
-        <v>166.75979590909091</v>
+        <v>174.13741743010908</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" ref="P14" si="8">P13/$J16</f>
-        <v>191.77376529545452</v>
+        <v>201.99940421892654</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" ref="Q14" si="9">Q13/$J16</f>
-        <v>220.53983008977269</v>
+        <v>234.3193088939548</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" ref="R14" si="10">R13/$J16</f>
-        <v>253.62080460323858</v>
+        <v>271.81039831698757</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" ref="S14" si="11">S13/$J16</f>
-        <v>291.66392529372439</v>
+        <v>315.30006204770558</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" ref="T14" si="12">T13/$J16</f>
-        <v>335.41351408778303</v>
+        <v>365.74807197533852</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
@@ -9433,7 +9433,7 @@
         <v>98</v>
       </c>
       <c r="J15" s="29">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -9480,43 +9480,43 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" ref="K17:T17" si="13">K13/$J14</f>
-        <v>3.6794835812517537E-2</v>
+        <v>3.7114790906539422E-2</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="13"/>
-        <v>4.2314061184395166E-2</v>
+        <v>4.3053157451585736E-2</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="13"/>
-        <v>4.8661170362054439E-2</v>
+        <v>4.9941662643839452E-2</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="13"/>
-        <v>5.5960345916362612E-2</v>
+        <v>5.7932328666853765E-2</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="13"/>
-        <v>6.4354397803817007E-2</v>
+        <v>6.7201501253550372E-2</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="13"/>
-        <v>7.4007557474389543E-2</v>
+        <v>7.795374145411843E-2</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="13"/>
-        <v>8.5108691095547973E-2</v>
+        <v>9.0426340086777385E-2</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="13"/>
-        <v>9.7874994759880166E-2</v>
+        <v>0.10489455450066178</v>
       </c>
       <c r="S17" s="2">
         <f t="shared" si="13"/>
-        <v>0.1125562439738622</v>
+        <v>0.12167768322076766</v>
       </c>
       <c r="T17" s="2">
         <f t="shared" si="13"/>
-        <v>0.12943968056994151</v>
+        <v>0.1411461125360905</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
@@ -9760,7 +9760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00995985-ABB7-47BD-AA64-257B0285301F}">
   <dimension ref="C2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F7"/>
     </sheetView>
   </sheetViews>
@@ -9774,13 +9774,13 @@
         <v>91</v>
       </c>
       <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
         <v>103</v>
-      </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -9793,7 +9793,7 @@
       <c r="E3">
         <v>991100</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="30">
         <f>Table8[[#This Row],[Rev]]/Table8[[#This Row],[AUM]]</f>
         <v>4.8984966199172629E-3</v>
       </c>
@@ -9808,7 +9808,7 @@
       <c r="E4">
         <v>962300</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="30">
         <f>Table8[[#This Row],[Rev]]/Table8[[#This Row],[AUM]]</f>
         <v>5.5830821988984728E-3</v>
       </c>
@@ -9823,7 +9823,7 @@
       <c r="E5">
         <v>1206800</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="30">
         <f>Table8[[#This Row],[Rev]]/Table8[[#This Row],[AUM]]</f>
         <v>4.6552038448790184E-3</v>
       </c>
@@ -9838,7 +9838,7 @@
       <c r="E6">
         <v>1470500</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="30">
         <f>Table8[[#This Row],[Rev]]/Table8[[#This Row],[AUM]]</f>
         <v>4.2208092485549135E-3</v>
       </c>
@@ -9853,7 +9853,7 @@
       <c r="E7">
         <v>1687800</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="30">
         <f>Table8[[#This Row],[Rev]]/Table8[[#This Row],[AUM]]</f>
         <v>4.5455030216850333E-3</v>
       </c>
